--- a/mst_data.xlsx
+++ b/mst_data.xlsx
@@ -1,15 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmill\OneDrive\デスクトップ\sample_data\データの可視化\化療調製_AddDisデータ分析\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547218C7-6752-45F2-99F6-9194B7CF5DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="9090" yWindow="1635" windowWidth="12375" windowHeight="12825" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="krebs" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="exclusion" sheetId="2" r:id="rId5"/>
+    <sheet name="krebs" sheetId="1" r:id="rId1"/>
+    <sheet name="exclusion" sheetId="2" r:id="rId2"/>
+    <sheet name="ph" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">krebs!$A$1:$C$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">krebs!$A$1:$C$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ph!$A$1:$C$36</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="qyvV+4SyX3wEjGKIcuAzRg6FPUnMvr11pur+20kTebY="/>
@@ -19,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="239">
   <si>
     <t>薬品コード</t>
   </si>
@@ -619,36 +631,192 @@
   </si>
   <si>
     <t>リツキサン点滴静注</t>
+  </si>
+  <si>
+    <t>調製者</t>
+  </si>
+  <si>
+    <t>鈴木 里麻</t>
+  </si>
+  <si>
+    <t>森﨑 萌</t>
+  </si>
+  <si>
+    <t>山下拓海</t>
+  </si>
+  <si>
+    <t>本山 大夢</t>
+  </si>
+  <si>
+    <t>小島 礼菜</t>
+  </si>
+  <si>
+    <t>池田 のどか</t>
+  </si>
+  <si>
+    <t>渡邊晃平</t>
+  </si>
+  <si>
+    <t>阿部 彩香</t>
+  </si>
+  <si>
+    <t>谷 江梨奈</t>
+  </si>
+  <si>
+    <t>長﨑 瑞佳</t>
+  </si>
+  <si>
+    <t>森 彩乃</t>
+  </si>
+  <si>
+    <t>鈴木千晴</t>
+  </si>
+  <si>
+    <t>石崎愛弓</t>
+  </si>
+  <si>
+    <t>浅野 岳人</t>
+  </si>
+  <si>
+    <t>林原 瑞加</t>
+  </si>
+  <si>
+    <t>野々山 陽子</t>
+  </si>
+  <si>
+    <t>高木 竜一</t>
+  </si>
+  <si>
+    <t>szkr</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>mrsk</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ymst</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>mtym</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>kjm</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ikd</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>wtnbk</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ab</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>tn</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ngsk</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>mr</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>szkc</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>iszk</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>asn</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>hysbr</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>nnym</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>tkg</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>若原 美沙紀</t>
+  </si>
+  <si>
+    <t>重複</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウフク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ph</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>wkhr</t>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Meiryo"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Meiryo"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Meiryo"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -657,55 +825,54 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -895,26 +1062,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F986"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.29"/>
-    <col customWidth="1" min="2" max="2" width="23.43"/>
-    <col customWidth="1" min="3" max="3" width="12.57"/>
-    <col customWidth="1" min="4" max="26" width="8.71"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -925,40 +1094,40 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1">
+    <row r="2" spans="1:4" ht="18.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4">
-        <v>250.0</v>
-      </c>
-    </row>
-    <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="5" t="s">
+      <c r="C2" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4">
-        <v>1000.0</v>
-      </c>
-    </row>
-    <row r="4" ht="18.75" customHeight="1">
-      <c r="A4" s="5" t="s">
+      <c r="C3" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="5" ht="18.75" customHeight="1">
+      <c r="C4" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -966,32 +1135,32 @@
         <v>9</v>
       </c>
       <c r="C5" s="1">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="6" ht="18.75" customHeight="1">
-      <c r="A6" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4">
-        <v>400.0</v>
-      </c>
-    </row>
-    <row r="7" ht="18.75" customHeight="1">
-      <c r="A7" s="5" t="s">
+      <c r="C6" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4">
-        <v>1000.0</v>
-      </c>
-    </row>
-    <row r="8" ht="18.75" customHeight="1">
+      <c r="C7" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -999,284 +1168,284 @@
         <v>13</v>
       </c>
       <c r="C8" s="1">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="9" ht="18.75" customHeight="1">
-      <c r="A9" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="5">
-        <v>150.0</v>
-      </c>
-    </row>
-    <row r="10" ht="18.75" customHeight="1">
-      <c r="A10" s="5" t="s">
+      <c r="C9" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="5">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="11" ht="18.75" customHeight="1">
-      <c r="A11" s="5" t="s">
+      <c r="C10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="5">
-        <v>60.0</v>
+      <c r="C11" s="3">
+        <v>60</v>
       </c>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" ht="18.75" customHeight="1">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="4">
-        <v>150.0</v>
+      <c r="C12" s="1">
+        <v>150</v>
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" ht="18.75" customHeight="1">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="4">
-        <v>450.0</v>
+      <c r="C13" s="1">
+        <v>450</v>
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" ht="18.75" customHeight="1">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="5">
-        <v>50.0</v>
+      <c r="C14" s="3">
+        <v>50</v>
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" ht="18.75" customHeight="1">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="4">
-        <v>50.0</v>
-      </c>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" ht="18.75" customHeight="1">
-      <c r="A16" s="5" t="s">
+      <c r="C15" s="1">
+        <v>50</v>
+      </c>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="D16" s="5"/>
-    </row>
-    <row r="17" ht="18.75" customHeight="1">
-      <c r="A17" s="5" t="s">
+      <c r="C16" s="1">
+        <v>10</v>
+      </c>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="4">
-        <v>500.0</v>
-      </c>
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" ht="18.75" customHeight="1">
-      <c r="A18" s="5" t="s">
+      <c r="C17" s="1">
+        <v>500</v>
+      </c>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="5">
-        <v>100.0</v>
-      </c>
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19" ht="18.75" customHeight="1">
-      <c r="A19" s="5" t="s">
+      <c r="C18" s="3">
+        <v>100</v>
+      </c>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="5">
-        <v>40.0</v>
-      </c>
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20" ht="18.75" customHeight="1">
-      <c r="A20" s="5" t="s">
+      <c r="C19" s="3">
+        <v>40</v>
+      </c>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A20" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="5">
-        <v>100.0</v>
-      </c>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" ht="18.75" customHeight="1">
-      <c r="A21" s="5" t="s">
+      <c r="C20" s="3">
+        <v>100</v>
+      </c>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="5">
-        <v>20.0</v>
-      </c>
-      <c r="D21" s="5"/>
-    </row>
-    <row r="22" ht="18.75" customHeight="1">
-      <c r="A22" s="5" t="s">
+      <c r="C21" s="3">
+        <v>20</v>
+      </c>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A22" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="4">
-        <v>20.0</v>
-      </c>
-      <c r="D22" s="5"/>
-    </row>
-    <row r="23" ht="18.75" customHeight="1">
-      <c r="A23" s="5" t="s">
+      <c r="C22" s="1">
+        <v>20</v>
+      </c>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A23" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="4">
-        <v>80.0</v>
-      </c>
-      <c r="D23" s="5"/>
-    </row>
-    <row r="24" ht="18.75" customHeight="1">
-      <c r="A24" s="5" t="s">
+      <c r="C23" s="1">
+        <v>80</v>
+      </c>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A24" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="5">
-        <v>10.0</v>
-      </c>
-      <c r="D24" s="5"/>
-    </row>
-    <row r="25" ht="18.75" customHeight="1">
-      <c r="A25" s="5" t="s">
+      <c r="C24" s="3">
+        <v>10</v>
+      </c>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A25" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="5">
-        <v>50.0</v>
-      </c>
-      <c r="D25" s="5"/>
-    </row>
-    <row r="26" ht="18.75" customHeight="1">
-      <c r="A26" s="5" t="s">
+      <c r="C25" s="3">
+        <v>50</v>
+      </c>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A26" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="4">
-        <v>100.0</v>
-      </c>
-      <c r="D26" s="5"/>
-    </row>
-    <row r="27" ht="18.75" customHeight="1">
-      <c r="A27" s="5" t="s">
+      <c r="C26" s="1">
+        <v>100</v>
+      </c>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A27" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="5">
-        <v>50.0</v>
-      </c>
-      <c r="D27" s="5"/>
-    </row>
-    <row r="28" ht="18.75" customHeight="1">
-      <c r="A28" s="5" t="s">
+      <c r="C27" s="3">
+        <v>50</v>
+      </c>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A28" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="4">
-        <v>200.0</v>
-      </c>
-      <c r="D28" s="5"/>
-    </row>
-    <row r="29" ht="18.75" customHeight="1">
-      <c r="A29" s="5" t="s">
+      <c r="C28" s="1">
+        <v>200</v>
+      </c>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A29" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="4">
-        <v>1000.0</v>
-      </c>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" ht="18.75" customHeight="1">
-      <c r="A30" s="5" t="s">
+      <c r="C29" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A30" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="5">
-        <v>1000.0</v>
-      </c>
-      <c r="D30" s="5"/>
-    </row>
-    <row r="31" ht="18.75" customHeight="1">
-      <c r="A31" s="5" t="s">
+      <c r="C30" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A31" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="5">
-        <v>50.0</v>
-      </c>
-      <c r="D31" s="5"/>
-    </row>
-    <row r="32" ht="18.75" customHeight="1">
+      <c r="C31" s="3">
+        <v>50</v>
+      </c>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4" ht="18.75" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>51</v>
       </c>
@@ -1284,11 +1453,11 @@
         <v>52</v>
       </c>
       <c r="C32" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="D32" s="5"/>
-    </row>
-    <row r="33" ht="18.75" customHeight="1">
+        <v>5</v>
+      </c>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4" ht="18.75" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>53</v>
       </c>
@@ -1296,11 +1465,11 @@
         <v>52</v>
       </c>
       <c r="C33" s="1">
-        <v>50.0</v>
-      </c>
-      <c r="D33" s="5"/>
-    </row>
-    <row r="34" ht="18.75" customHeight="1">
+        <v>50</v>
+      </c>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4" ht="18.75" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>54</v>
       </c>
@@ -1308,11 +1477,11 @@
         <v>52</v>
       </c>
       <c r="C34" s="1">
-        <v>200.0</v>
-      </c>
-      <c r="D34" s="5"/>
-    </row>
-    <row r="35" ht="18.75" customHeight="1">
+        <v>200</v>
+      </c>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:4" ht="18.75" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>55</v>
       </c>
@@ -1320,275 +1489,275 @@
         <v>52</v>
       </c>
       <c r="C35" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="D35" s="5"/>
-    </row>
-    <row r="36" ht="18.75" customHeight="1">
-      <c r="A36" s="5" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A36" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="4">
-        <v>100.0</v>
-      </c>
-      <c r="D36" s="5"/>
-    </row>
-    <row r="37" ht="18.75" customHeight="1">
-      <c r="A37" s="5" t="s">
+      <c r="C36" s="1">
+        <v>100</v>
+      </c>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A37" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C37" s="4">
-        <v>100.0</v>
-      </c>
-      <c r="D37" s="5"/>
-    </row>
-    <row r="38" ht="18.75" customHeight="1">
-      <c r="A38" s="5" t="s">
+      <c r="C37" s="1">
+        <v>100</v>
+      </c>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A38" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="4">
-        <v>800.0</v>
-      </c>
-      <c r="D38" s="5"/>
-    </row>
-    <row r="39" ht="18.75" customHeight="1">
-      <c r="A39" s="5" t="s">
+      <c r="C38" s="1">
+        <v>800</v>
+      </c>
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A39" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C39" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="D39" s="5"/>
-    </row>
-    <row r="40" ht="18.75" customHeight="1">
-      <c r="A40" s="5" t="s">
+      <c r="C39" s="3">
+        <v>500</v>
+      </c>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A40" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C40" s="4">
-        <v>100.0</v>
-      </c>
-      <c r="D40" s="5"/>
-    </row>
-    <row r="41" ht="18.75" customHeight="1">
-      <c r="A41" s="5" t="s">
+      <c r="C40" s="1">
+        <v>100</v>
+      </c>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A41" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C41" s="4">
-        <v>30.0</v>
-      </c>
-      <c r="D41" s="5"/>
-    </row>
-    <row r="42" ht="18.75" customHeight="1">
+      <c r="C41" s="1">
+        <v>30</v>
+      </c>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:4" ht="18.75" customHeight="1">
       <c r="A42" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C42" s="4">
-        <v>500.0</v>
-      </c>
-      <c r="D42" s="5"/>
-    </row>
-    <row r="43" ht="18.75" customHeight="1">
-      <c r="A43" s="5" t="s">
+      <c r="C42" s="1">
+        <v>500</v>
+      </c>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A43" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C43" s="4">
-        <v>500.0</v>
-      </c>
-      <c r="D43" s="5"/>
-    </row>
-    <row r="44" ht="18.75" customHeight="1">
-      <c r="A44" s="5" t="s">
+      <c r="C43" s="1">
+        <v>500</v>
+      </c>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A44" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C44" s="5">
-        <v>10.0</v>
-      </c>
-      <c r="D44" s="5"/>
-    </row>
-    <row r="45" ht="18.75" customHeight="1">
-      <c r="A45" s="5" t="s">
+      <c r="C44" s="3">
+        <v>10</v>
+      </c>
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A45" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C45" s="5">
-        <v>20.0</v>
-      </c>
-      <c r="D45" s="5"/>
-    </row>
-    <row r="46" ht="18.75" customHeight="1">
-      <c r="A46" s="5" t="s">
+      <c r="C45" s="3">
+        <v>20</v>
+      </c>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A46" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C46" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D46" s="5"/>
-    </row>
-    <row r="47" ht="18.75" customHeight="1">
-      <c r="A47" s="5" t="s">
+      <c r="C46" s="1">
+        <v>1</v>
+      </c>
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A47" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C47" s="4">
-        <v>100.0</v>
-      </c>
-      <c r="D47" s="5"/>
-    </row>
-    <row r="48" ht="18.75" customHeight="1">
-      <c r="A48" s="5" t="s">
+      <c r="C47" s="1">
+        <v>100</v>
+      </c>
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A48" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C48" s="4">
-        <v>50.0</v>
-      </c>
-      <c r="D48" s="5"/>
-    </row>
-    <row r="49" ht="18.75" customHeight="1">
-      <c r="A49" s="5" t="s">
+      <c r="C48" s="1">
+        <v>50</v>
+      </c>
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A49" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C49" s="4">
-        <v>400.0</v>
-      </c>
-      <c r="D49" s="5"/>
-    </row>
-    <row r="50" ht="18.75" customHeight="1">
-      <c r="A50" s="5" t="s">
+      <c r="C49" s="1">
+        <v>400</v>
+      </c>
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A50" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C50" s="4">
-        <v>100.0</v>
-      </c>
-      <c r="D50" s="5"/>
-    </row>
-    <row r="51" ht="18.75" customHeight="1">
-      <c r="A51" s="5" t="s">
+      <c r="C50" s="1">
+        <v>100</v>
+      </c>
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A51" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C51" s="4">
-        <v>500.0</v>
-      </c>
-      <c r="D51" s="5"/>
-    </row>
-    <row r="52" ht="18.75" customHeight="1">
-      <c r="A52" s="5" t="s">
+      <c r="C51" s="1">
+        <v>500</v>
+      </c>
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A52" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C52" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="D52" s="5"/>
-    </row>
-    <row r="53" ht="18.75" customHeight="1">
-      <c r="A53" s="5" t="s">
+      <c r="C52" s="1">
+        <v>10</v>
+      </c>
+      <c r="D52" s="3"/>
+    </row>
+    <row r="53" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A53" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C53" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="D53" s="5"/>
-    </row>
-    <row r="54" ht="18.75" customHeight="1">
-      <c r="A54" s="5" t="s">
+      <c r="C53" s="3">
+        <v>4</v>
+      </c>
+      <c r="D53" s="3"/>
+    </row>
+    <row r="54" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A54" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C54" s="5">
-        <v>48.0</v>
-      </c>
-      <c r="D54" s="5"/>
-    </row>
-    <row r="55" ht="18.75" customHeight="1">
-      <c r="A55" s="5" t="s">
+      <c r="C54" s="3">
+        <v>48</v>
+      </c>
+      <c r="D54" s="3"/>
+    </row>
+    <row r="55" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A55" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C55" s="4">
-        <v>100.0</v>
-      </c>
-      <c r="D55" s="5"/>
-    </row>
-    <row r="56" ht="18.75" customHeight="1">
-      <c r="A56" s="5" t="s">
+      <c r="C55" s="1">
+        <v>100</v>
+      </c>
+      <c r="D55" s="3"/>
+    </row>
+    <row r="56" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A56" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C56" s="4">
-        <v>100.0</v>
-      </c>
-      <c r="D56" s="5"/>
-    </row>
-    <row r="57" ht="18.75" customHeight="1">
-      <c r="A57" s="5" t="s">
+      <c r="C56" s="1">
+        <v>100</v>
+      </c>
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A57" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C57" s="4">
-        <v>240.0</v>
-      </c>
-      <c r="D57" s="5"/>
-    </row>
-    <row r="58" ht="18.75" customHeight="1">
+      <c r="C57" s="1">
+        <v>240</v>
+      </c>
+      <c r="D57" s="3"/>
+    </row>
+    <row r="58" spans="1:6" ht="18.75" customHeight="1">
       <c r="A58" s="1" t="s">
         <v>93</v>
       </c>
@@ -1596,11 +1765,11 @@
         <v>94</v>
       </c>
       <c r="C58" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="D58" s="5"/>
-    </row>
-    <row r="59" ht="18.75" customHeight="1">
+        <v>10</v>
+      </c>
+      <c r="D58" s="3"/>
+    </row>
+    <row r="59" spans="1:6" ht="18.75" customHeight="1">
       <c r="A59" s="1" t="s">
         <v>95</v>
       </c>
@@ -1608,165 +1777,165 @@
         <v>94</v>
       </c>
       <c r="C59" s="1">
-        <v>40.0</v>
-      </c>
-      <c r="D59" s="5"/>
-    </row>
-    <row r="60" ht="18.75" customHeight="1">
-      <c r="A60" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D59" s="3"/>
+    </row>
+    <row r="60" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A60" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C60" s="4">
-        <v>1000.0</v>
-      </c>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-    </row>
-    <row r="61" ht="18.75" customHeight="1">
-      <c r="A61" s="5" t="s">
+      <c r="C60" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A61" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C61" s="4">
-        <v>100.0</v>
-      </c>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-    </row>
-    <row r="62" ht="18.75" customHeight="1">
-      <c r="A62" s="5" t="s">
+      <c r="C61" s="1">
         <v>100</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A62" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C62" s="5">
-        <v>160.0</v>
-      </c>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-    </row>
-    <row r="63" ht="18.75" customHeight="1">
-      <c r="A63" s="5" t="s">
+      <c r="C62" s="3">
+        <v>160</v>
+      </c>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+    </row>
+    <row r="63" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A63" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C63" s="4">
-        <v>20.0</v>
-      </c>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-    </row>
-    <row r="64" ht="18.75" customHeight="1">
-      <c r="A64" s="5" t="s">
+      <c r="C63" s="1">
+        <v>20</v>
+      </c>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+    </row>
+    <row r="64" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A64" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C64" s="4">
-        <v>100.0</v>
-      </c>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-    </row>
-    <row r="65" ht="18.75" customHeight="1">
-      <c r="A65" s="5" t="s">
+      <c r="C64" s="1">
+        <v>100</v>
+      </c>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+    </row>
+    <row r="65" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A65" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C65" s="1">
         <v>0.5</v>
       </c>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-    </row>
-    <row r="66" ht="18.75" customHeight="1">
-      <c r="A66" s="5" t="s">
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+    </row>
+    <row r="66" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A66" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C66" s="4">
-        <v>100.0</v>
-      </c>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-    </row>
-    <row r="67" ht="18.75" customHeight="1">
-      <c r="A67" s="5" t="s">
+      <c r="C66" s="1">
+        <v>100</v>
+      </c>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+    </row>
+    <row r="67" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A67" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C67" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-    </row>
-    <row r="68" ht="18.75" customHeight="1">
+      <c r="C67" s="3">
+        <v>500</v>
+      </c>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+    </row>
+    <row r="68" spans="1:6" ht="18.75" customHeight="1">
       <c r="A68" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C68" s="4">
-        <v>60.0</v>
-      </c>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-    </row>
-    <row r="69" ht="18.75" customHeight="1">
-      <c r="A69" s="5" t="s">
+      <c r="C68" s="1">
+        <v>60</v>
+      </c>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+    </row>
+    <row r="69" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A69" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C69" s="5">
-        <v>20.0</v>
-      </c>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-    </row>
-    <row r="70" ht="18.75" customHeight="1">
-      <c r="A70" s="5" t="s">
+      <c r="C69" s="3">
+        <v>20</v>
+      </c>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+    </row>
+    <row r="70" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A70" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C70" s="4">
-        <v>100.0</v>
-      </c>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-    </row>
-    <row r="71" ht="18.75" customHeight="1">
+      <c r="C70" s="1">
+        <v>100</v>
+      </c>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+    </row>
+    <row r="71" spans="1:6" ht="18.75" customHeight="1">
       <c r="A71" s="1" t="s">
         <v>116</v>
       </c>
@@ -1774,356 +1943,356 @@
         <v>117</v>
       </c>
       <c r="C71" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-    </row>
-    <row r="72" ht="18.75" customHeight="1">
-      <c r="A72" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+    </row>
+    <row r="72" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A72" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C72" s="5">
-        <v>1200.0</v>
-      </c>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-    </row>
-    <row r="73" ht="18.75" customHeight="1">
-      <c r="A73" s="5" t="s">
+      <c r="C72" s="3">
+        <v>1200</v>
+      </c>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+    </row>
+    <row r="73" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A73" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C73" s="4">
-        <v>20.0</v>
-      </c>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
-    </row>
-    <row r="74" ht="18.75" customHeight="1">
-      <c r="A74" s="5" t="s">
+      <c r="C73" s="1">
+        <v>20</v>
+      </c>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+    </row>
+    <row r="74" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A74" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C74" s="4">
-        <v>50.0</v>
-      </c>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
-    </row>
-    <row r="75" ht="18.75" customHeight="1">
-      <c r="A75" s="5" t="s">
+      <c r="C74" s="1">
+        <v>50</v>
+      </c>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+    </row>
+    <row r="75" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A75" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C75" s="5">
-        <v>12.0</v>
-      </c>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
-    </row>
-    <row r="76" ht="18.75" customHeight="1">
-      <c r="A76" s="5" t="s">
+      <c r="C75" s="3">
+        <v>12</v>
+      </c>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+    </row>
+    <row r="76" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A76" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C76" s="4">
-        <v>100.0</v>
-      </c>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-    </row>
-    <row r="77" ht="18.75" customHeight="1">
-      <c r="A77" s="5" t="s">
+      <c r="C76" s="1">
+        <v>100</v>
+      </c>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+    </row>
+    <row r="77" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A77" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C77" s="5">
-        <v>420.0</v>
-      </c>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-    </row>
-    <row r="78" ht="18.75" customHeight="1">
-      <c r="A78" s="5" t="s">
+      <c r="C77" s="3">
+        <v>420</v>
+      </c>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+    </row>
+    <row r="78" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A78" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C78" s="4">
-        <v>60.0</v>
-      </c>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-    </row>
-    <row r="79" ht="18.75" customHeight="1">
-      <c r="A79" s="5" t="s">
+      <c r="C78" s="1">
+        <v>60</v>
+      </c>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+    </row>
+    <row r="79" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A79" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C79" s="5">
-        <v>150.0</v>
-      </c>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-    </row>
-    <row r="80" ht="18.75" customHeight="1">
-      <c r="A80" s="5" t="s">
+      <c r="C79" s="3">
+        <v>150</v>
+      </c>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+    </row>
+    <row r="80" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A80" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C80" s="5">
-        <v>30.0</v>
-      </c>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
-    </row>
-    <row r="81" ht="18.75" customHeight="1">
-      <c r="A81" s="5" t="s">
+      <c r="C80" s="3">
+        <v>30</v>
+      </c>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+    </row>
+    <row r="81" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A81" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C81" s="5">
-        <v>200.0</v>
-      </c>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5"/>
-    </row>
-    <row r="82" ht="18.75" customHeight="1">
-      <c r="A82" s="5" t="s">
+      <c r="C81" s="3">
+        <v>200</v>
+      </c>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+    </row>
+    <row r="82" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A82" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C82" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-    </row>
-    <row r="83" ht="18.75" customHeight="1">
-      <c r="A83" s="5" t="s">
+      <c r="C82" s="1">
+        <v>1</v>
+      </c>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+    </row>
+    <row r="83" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A83" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C83" s="5">
-        <v>35.0</v>
-      </c>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-    </row>
-    <row r="84" ht="18.75" customHeight="1">
-      <c r="A84" s="5" t="s">
+      <c r="C83" s="3">
+        <v>35</v>
+      </c>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+    </row>
+    <row r="84" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A84" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C84" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
-    </row>
-    <row r="85" ht="18.75" customHeight="1">
-      <c r="A85" s="5" t="s">
+      <c r="C84" s="3">
+        <v>1</v>
+      </c>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+    </row>
+    <row r="85" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A85" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C85" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5"/>
-    </row>
-    <row r="86" ht="18.75" customHeight="1">
+      <c r="C85" s="1">
+        <v>1</v>
+      </c>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+    </row>
+    <row r="86" spans="1:6" ht="18.75" customHeight="1">
       <c r="A86" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C86" s="4">
-        <v>100.0</v>
-      </c>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
-    </row>
-    <row r="87" ht="18.75" customHeight="1">
-      <c r="A87" s="5" t="s">
+      <c r="C86" s="1">
+        <v>100</v>
+      </c>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+    </row>
+    <row r="87" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A87" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C87" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5"/>
-    </row>
-    <row r="88" ht="18.75" customHeight="1">
-      <c r="A88" s="5" t="s">
+      <c r="C87" s="3">
+        <v>3</v>
+      </c>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+    </row>
+    <row r="88" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A88" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C88" s="4">
-        <v>30.0</v>
-      </c>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5"/>
-    </row>
-    <row r="89" ht="18.75" customHeight="1">
-      <c r="A89" s="5" t="s">
+      <c r="C88" s="1">
+        <v>30</v>
+      </c>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+    </row>
+    <row r="89" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A89" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B89" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C89" s="4">
-        <v>50.0</v>
-      </c>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
-    </row>
-    <row r="90" ht="18.75" customHeight="1">
-      <c r="A90" s="5" t="s">
+      <c r="C89" s="1">
+        <v>50</v>
+      </c>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+    </row>
+    <row r="90" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A90" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B90" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C90" s="5">
-        <v>5000.0</v>
-      </c>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
-    </row>
-    <row r="91" ht="18.75" customHeight="1">
-      <c r="A91" s="5"/>
-      <c r="B91" s="5"/>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="5"/>
-    </row>
-    <row r="92" ht="18.75" customHeight="1">
-      <c r="A92" s="5"/>
-      <c r="B92" s="5"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
-      <c r="F92" s="5"/>
-    </row>
-    <row r="93" ht="18.75" customHeight="1">
-      <c r="A93" s="5"/>
-      <c r="B93" s="5"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5"/>
-    </row>
-    <row r="94" ht="18.75" customHeight="1">
-      <c r="A94" s="5"/>
-      <c r="B94" s="5"/>
-      <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
-      <c r="F94" s="5"/>
-    </row>
-    <row r="95" ht="18.75" customHeight="1">
-      <c r="A95" s="5"/>
-      <c r="B95" s="5"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5"/>
-    </row>
-    <row r="96" ht="18.75" customHeight="1">
-      <c r="A96" s="5"/>
-      <c r="B96" s="5"/>
-      <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="5"/>
-    </row>
-    <row r="97" ht="18.75" customHeight="1">
-      <c r="A97" s="5"/>
-      <c r="B97" s="5"/>
-      <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="5"/>
-    </row>
-    <row r="98" ht="18.75" customHeight="1">
-      <c r="A98" s="5"/>
-      <c r="B98" s="5"/>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5"/>
-    </row>
-    <row r="99" ht="18.75" customHeight="1"/>
-    <row r="100" ht="18.75" customHeight="1"/>
-    <row r="101" ht="18.75" customHeight="1"/>
-    <row r="102" ht="18.75" customHeight="1"/>
-    <row r="103" ht="18.75" customHeight="1"/>
-    <row r="104" ht="18.75" customHeight="1"/>
-    <row r="105" ht="18.75" customHeight="1"/>
-    <row r="106" ht="18.75" customHeight="1"/>
-    <row r="107" ht="18.75" customHeight="1"/>
-    <row r="108" ht="18.75" customHeight="1"/>
-    <row r="109" ht="18.75" customHeight="1"/>
-    <row r="110" ht="18.75" customHeight="1"/>
-    <row r="111" ht="18.75" customHeight="1"/>
-    <row r="112" ht="18.75" customHeight="1"/>
+      <c r="C90" s="3">
+        <v>5000</v>
+      </c>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+    </row>
+    <row r="91" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+    </row>
+    <row r="92" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+    </row>
+    <row r="93" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+    </row>
+    <row r="94" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+    </row>
+    <row r="95" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+    </row>
+    <row r="96" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+    </row>
+    <row r="97" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A97" s="3"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+    </row>
+    <row r="98" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A98" s="3"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+    </row>
+    <row r="99" spans="1:6" ht="18.75" customHeight="1"/>
+    <row r="100" spans="1:6" ht="18.75" customHeight="1"/>
+    <row r="101" spans="1:6" ht="18.75" customHeight="1"/>
+    <row r="102" spans="1:6" ht="18.75" customHeight="1"/>
+    <row r="103" spans="1:6" ht="18.75" customHeight="1"/>
+    <row r="104" spans="1:6" ht="18.75" customHeight="1"/>
+    <row r="105" spans="1:6" ht="18.75" customHeight="1"/>
+    <row r="106" spans="1:6" ht="18.75" customHeight="1"/>
+    <row r="107" spans="1:6" ht="18.75" customHeight="1"/>
+    <row r="108" spans="1:6" ht="18.75" customHeight="1"/>
+    <row r="109" spans="1:6" ht="18.75" customHeight="1"/>
+    <row r="110" spans="1:6" ht="18.75" customHeight="1"/>
+    <row r="111" spans="1:6" ht="18.75" customHeight="1"/>
+    <row r="112" spans="1:6" ht="18.75" customHeight="1"/>
     <row r="113" ht="18.75" customHeight="1"/>
     <row r="114" ht="18.75" customHeight="1"/>
     <row r="115" ht="18.75" customHeight="1"/>
@@ -2999,225 +3168,539 @@
     <row r="985" ht="18.75" customHeight="1"/>
     <row r="986" ht="18.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="$A$1:$C$98">
-    <sortState ref="A1:C98">
-      <sortCondition ref="B1:B98"/>
-    </sortState>
-  </autoFilter>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <autoFilter ref="A1:C98" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.86"/>
-    <col customWidth="1" min="2" max="2" width="44.43"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="4" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="4" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="4" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="4" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="4" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="4" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="4" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="4" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="4" t="s">
         <v>199</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F3FE8F-C3BC-4690-9786-FCE51CE9895A}">
+  <dimension ref="A1:C38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18.75">
+      <c r="A1" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18.75">
+      <c r="A2" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C2" s="3">
+        <f>COUNTIF($A$2:A2,A2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18.75">
+      <c r="A3" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C3" s="3">
+        <f>COUNTIF($A$2:A3,A3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18.75">
+      <c r="A4" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C4" s="3">
+        <f>COUNTIF($A$2:A4,A4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18.75">
+      <c r="A5" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C5" s="3">
+        <f>COUNTIF($A$2:A5,A5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18.75">
+      <c r="A6" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C6" s="3">
+        <f>COUNTIF($A$2:A6,A6)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18.75">
+      <c r="A7" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C7" s="3">
+        <f>COUNTIF($A$2:A7,A7)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="18.75">
+      <c r="A8" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C8" s="3">
+        <f>COUNTIF($A$2:A8,A8)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18.75">
+      <c r="A9" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C9" s="3">
+        <f>COUNTIF($A$2:A9,A9)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18.75">
+      <c r="A10" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C10" s="3">
+        <f>COUNTIF($A$2:A10,A10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18.75">
+      <c r="A11" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C11" s="3">
+        <f>COUNTIF($A$2:A11,A11)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="18.75">
+      <c r="A12" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C12" s="3">
+        <f>COUNTIF($A$2:A12,A12)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="18.75">
+      <c r="A13" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C13" s="3">
+        <f>COUNTIF($A$2:A13,A13)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="18.75">
+      <c r="A14" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C14" s="3">
+        <f>COUNTIF($A$2:A14,A14)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="18.75">
+      <c r="A15" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C15" s="3">
+        <f>COUNTIF($A$2:A15,A15)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="18.75">
+      <c r="A16" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C16" s="3">
+        <f>COUNTIF($A$2:A16,A16)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="18.75">
+      <c r="A17" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C17" s="3">
+        <f>COUNTIF($A$2:A17,A17)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="18.75">
+      <c r="A18" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C18" s="3">
+        <f>COUNTIF($A$2:A18,A18)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="18.75">
+      <c r="A19" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C19" s="3">
+        <f>COUNTIF($A$2:A25,A19)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="18.75">
+      <c r="A20" s="1"/>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:3" ht="18.75">
+      <c r="A21" s="3"/>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3" ht="18.75">
+      <c r="A22" s="3"/>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3" ht="18.75">
+      <c r="A23" s="1"/>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:3" ht="18.75">
+      <c r="A24" s="3"/>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:3" ht="18.75">
+      <c r="A25" s="1"/>
+      <c r="C25" s="3"/>
+    </row>
+    <row r="27" spans="1:3" ht="18.75">
+      <c r="A27" s="3"/>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3" ht="18.75">
+      <c r="A28" s="1"/>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3" ht="18.75">
+      <c r="A29" s="3"/>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:3" ht="18.75">
+      <c r="A30" s="1"/>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:3" ht="18.75">
+      <c r="A31" s="3"/>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:3" ht="18.75">
+      <c r="A32" s="3"/>
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="1:3" ht="18.75">
+      <c r="A33" s="1"/>
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="1:3" ht="18.75">
+      <c r="A34" s="3"/>
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="1:3" ht="18.75">
+      <c r="A35" s="1"/>
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="1:3" ht="18.75">
+      <c r="A36" s="3"/>
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="1:3" ht="18.75">
+      <c r="A37" s="3"/>
+    </row>
+    <row r="38" spans="1:3" ht="18.75">
+      <c r="A38" s="1"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C36" xr:uid="{45F3FE8F-C3BC-4690-9786-FCE51CE9895A}"/>
+  <phoneticPr fontId="5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/mst_data.xlsx
+++ b/mst_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmill\OneDrive\デスクトップ\sample_data\データの可視化\化療調製_AddDisデータ分析\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547218C7-6752-45F2-99F6-9194B7CF5DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64AB6ED-6C51-4416-97B0-A7E4F36B6B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9090" yWindow="1635" windowWidth="12375" windowHeight="12825" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33150" yWindow="1215" windowWidth="22695" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="krebs" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="ph" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">krebs!$A$1:$C$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">krebs!$A$1:$C$97</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ph!$A$1:$C$36</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="317">
   <si>
     <t>薬品コード</t>
   </si>
@@ -770,6 +770,311 @@
   </si>
   <si>
     <t>wkhr</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>稲垣 晃熙</t>
+  </si>
+  <si>
+    <t>都築 奈々夏</t>
+  </si>
+  <si>
+    <t>志賀 有雅</t>
+  </si>
+  <si>
+    <t>竹内 寛登</t>
+  </si>
+  <si>
+    <t>岩間祐奈</t>
+  </si>
+  <si>
+    <t>近藤 瑞季</t>
+  </si>
+  <si>
+    <t>加藤 侑輝人</t>
+  </si>
+  <si>
+    <t>杉山 恵亮</t>
+  </si>
+  <si>
+    <t>中村 里英奈</t>
+  </si>
+  <si>
+    <t>三浦 忠将</t>
+  </si>
+  <si>
+    <t>木村 友美</t>
+  </si>
+  <si>
+    <t>尾嶋 朱莉</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>高畑 智瑛</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>平野 貴大</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>脊戸里々佳</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>橋本里々佳</t>
+    <rPh sb="0" eb="2">
+      <t>ハシモト</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>築山</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>奈央</t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>tdkn</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>sg</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>tkuc</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>iwm</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>knd</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>kt</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>sgym</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ingk</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>nkmr</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>tkym</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>mur</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>kmr</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ojm</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>tkht</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>hsmt</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>hrn</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>生理食塩液　ソフトバッグ　１０００ｍＬ</t>
+  </si>
+  <si>
+    <t>I72611</t>
+  </si>
+  <si>
+    <t>ブドウ糖注射液５％ ５０mL</t>
+  </si>
+  <si>
+    <t>I46603</t>
+  </si>
+  <si>
+    <t>I45703</t>
+  </si>
+  <si>
+    <t>I27287</t>
+  </si>
+  <si>
+    <t>I57578</t>
+  </si>
+  <si>
+    <t>I57053</t>
+  </si>
+  <si>
+    <t>I48409</t>
+  </si>
+  <si>
+    <t>I51898</t>
+  </si>
+  <si>
+    <t>I23362</t>
+  </si>
+  <si>
+    <t>I96777</t>
+  </si>
+  <si>
+    <t>I96778</t>
+  </si>
+  <si>
+    <t>I50793</t>
+  </si>
+  <si>
+    <t>I11104</t>
+  </si>
+  <si>
+    <t>I11186</t>
+  </si>
+  <si>
+    <t>I51337</t>
+  </si>
+  <si>
+    <t>I51619</t>
+  </si>
+  <si>
+    <t>I62638</t>
+  </si>
+  <si>
+    <t>I72159</t>
+  </si>
+  <si>
+    <t>I57120</t>
+  </si>
+  <si>
+    <t>I57123</t>
+  </si>
+  <si>
+    <t>I62085</t>
+  </si>
+  <si>
+    <t>I62086</t>
+  </si>
+  <si>
+    <t>I11099</t>
+  </si>
+  <si>
+    <t>IDA</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>サークリサ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ポテリジオ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ロゼウス</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>カルセド</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ブレオ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>オニバイド</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>エムプリシティ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ノバントロン</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>イジュド</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>リブタヨ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ハイカムチン</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>フィルデシン</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Rit</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ベスポンサ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>GEM</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ザルトラップ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>I27286</t>
+  </si>
+  <si>
+    <t>I57052</t>
+  </si>
+  <si>
+    <t>登録なし</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -777,7 +1082,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -819,6 +1124,23 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Meiryo"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -840,7 +1162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -854,6 +1176,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1071,8 +1395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F986"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="E117" sqref="E117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2208,7 +2532,7 @@
       <c r="B90" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C90" s="3">
+      <c r="C90" s="1">
         <v>5000</v>
       </c>
       <c r="D90" s="3"/>
@@ -2216,99 +2540,310 @@
       <c r="F90" s="3"/>
     </row>
     <row r="91" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
+      <c r="A91" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C91" s="1">
+        <v>5</v>
+      </c>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
     </row>
     <row r="92" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
+      <c r="A92" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C92" s="3">
+        <v>500</v>
+      </c>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
     </row>
     <row r="93" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
+      <c r="A93" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C93" s="1">
+        <v>20</v>
+      </c>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
     </row>
     <row r="94" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
+      <c r="A94" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C94" s="1">
+        <v>40</v>
+      </c>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
     </row>
     <row r="95" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
+      <c r="A95" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C95" s="3">
+        <v>50</v>
+      </c>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
     </row>
     <row r="96" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
+      <c r="A96" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C96" s="1">
+        <v>15</v>
+      </c>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
     </row>
     <row r="97" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
+      <c r="A97" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C97" s="1">
+        <v>43</v>
+      </c>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
     </row>
     <row r="98" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
+      <c r="A98" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C98" s="3">
+        <v>300</v>
+      </c>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
     </row>
-    <row r="99" spans="1:6" ht="18.75" customHeight="1"/>
-    <row r="100" spans="1:6" ht="18.75" customHeight="1"/>
-    <row r="101" spans="1:6" ht="18.75" customHeight="1"/>
-    <row r="102" spans="1:6" ht="18.75" customHeight="1"/>
-    <row r="103" spans="1:6" ht="18.75" customHeight="1"/>
-    <row r="104" spans="1:6" ht="18.75" customHeight="1"/>
-    <row r="105" spans="1:6" ht="18.75" customHeight="1"/>
-    <row r="106" spans="1:6" ht="18.75" customHeight="1"/>
-    <row r="107" spans="1:6" ht="18.75" customHeight="1"/>
-    <row r="108" spans="1:6" ht="18.75" customHeight="1"/>
-    <row r="109" spans="1:6" ht="18.75" customHeight="1"/>
-    <row r="110" spans="1:6" ht="18.75" customHeight="1"/>
-    <row r="111" spans="1:6" ht="18.75" customHeight="1"/>
-    <row r="112" spans="1:6" ht="18.75" customHeight="1"/>
-    <row r="113" ht="18.75" customHeight="1"/>
-    <row r="114" ht="18.75" customHeight="1"/>
-    <row r="115" ht="18.75" customHeight="1"/>
-    <row r="116" ht="18.75" customHeight="1"/>
-    <row r="117" ht="18.75" customHeight="1"/>
-    <row r="118" ht="18.75" customHeight="1"/>
-    <row r="119" ht="18.75" customHeight="1"/>
-    <row r="120" ht="18.75" customHeight="1"/>
-    <row r="121" ht="18.75" customHeight="1"/>
-    <row r="122" ht="18.75" customHeight="1"/>
-    <row r="123" ht="18.75" customHeight="1"/>
-    <row r="124" ht="18.75" customHeight="1"/>
-    <row r="125" ht="18.75" customHeight="1"/>
-    <row r="126" ht="18.75" customHeight="1"/>
-    <row r="127" ht="18.75" customHeight="1"/>
-    <row r="128" ht="18.75" customHeight="1"/>
+    <row r="99" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A99" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C99" s="1">
+        <v>400</v>
+      </c>
+      <c r="D99" s="3"/>
+    </row>
+    <row r="100" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A100" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C100" s="1">
+        <v>10</v>
+      </c>
+      <c r="D100" s="3"/>
+    </row>
+    <row r="101" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A101" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C101" s="3">
+        <v>300</v>
+      </c>
+      <c r="D101" s="3"/>
+    </row>
+    <row r="102" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A102" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C102" s="1">
+        <v>350</v>
+      </c>
+      <c r="D102" s="3"/>
+    </row>
+    <row r="103" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A103" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C103" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D103" s="3"/>
+    </row>
+    <row r="104" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A104" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C104" s="3">
+        <v>3</v>
+      </c>
+      <c r="D104" s="3"/>
+    </row>
+    <row r="105" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A105" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C105" s="1">
+        <v>100</v>
+      </c>
+      <c r="D105" s="3"/>
+    </row>
+    <row r="106" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A106" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C106" s="1">
+        <v>1</v>
+      </c>
+      <c r="D106" s="3"/>
+    </row>
+    <row r="107" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A107" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C107" s="3">
+        <v>200</v>
+      </c>
+      <c r="D107" s="3"/>
+    </row>
+    <row r="108" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A108" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C108" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D108" s="3"/>
+    </row>
+    <row r="109" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A109" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C109" s="1">
+        <v>100</v>
+      </c>
+      <c r="D109" s="3"/>
+    </row>
+    <row r="110" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A110" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C110" s="3">
+        <v>200</v>
+      </c>
+      <c r="D110" s="3"/>
+    </row>
+    <row r="111" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A111" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C111" s="1">
+        <v>25</v>
+      </c>
+      <c r="D111" s="3"/>
+    </row>
+    <row r="112" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A112" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C112" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="18.75" customHeight="1">
+      <c r="A113" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C113" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="18.75" customHeight="1"/>
+    <row r="115" spans="1:3" ht="18.75" customHeight="1"/>
+    <row r="116" spans="1:3" ht="18.75" customHeight="1"/>
+    <row r="117" spans="1:3" ht="18.75" customHeight="1"/>
+    <row r="118" spans="1:3" ht="18.75" customHeight="1"/>
+    <row r="119" spans="1:3" ht="18.75" customHeight="1"/>
+    <row r="120" spans="1:3" ht="18.75" customHeight="1"/>
+    <row r="121" spans="1:3" ht="18.75" customHeight="1"/>
+    <row r="122" spans="1:3" ht="18.75" customHeight="1"/>
+    <row r="123" spans="1:3" ht="18.75" customHeight="1"/>
+    <row r="124" spans="1:3" ht="18.75" customHeight="1"/>
+    <row r="125" spans="1:3" ht="18.75" customHeight="1"/>
+    <row r="126" spans="1:3" ht="18.75" customHeight="1"/>
+    <row r="127" spans="1:3" ht="18.75" customHeight="1"/>
+    <row r="128" spans="1:3" ht="18.75" customHeight="1"/>
     <row r="129" ht="18.75" customHeight="1"/>
     <row r="130" ht="18.75" customHeight="1"/>
     <row r="131" ht="18.75" customHeight="1"/>
@@ -3168,7 +3703,7 @@
     <row r="985" ht="18.75" customHeight="1"/>
     <row r="986" ht="18.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A1:C98" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:C97" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -3180,9 +3715,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -3190,7 +3727,7 @@
     <col min="2" max="2" width="44.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3380,6 +3917,22 @@
       </c>
       <c r="B24" s="4" t="s">
         <v>199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15" customHeight="1">
+      <c r="A25" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15" customHeight="1">
+      <c r="A26" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -3392,8 +3945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F3FE8F-C3BC-4690-9786-FCE51CE9895A}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3629,68 +4182,208 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="18.75">
-      <c r="A20" s="1"/>
-      <c r="C20" s="3"/>
+      <c r="A20" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C20" s="3">
+        <f>COUNTIF($A$2:A26,A20)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:3" ht="18.75">
-      <c r="A21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="A21" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C21" s="3">
+        <f>COUNTIF($A$2:A27,A21)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:3" ht="18.75">
-      <c r="A22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="A22" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C22" s="3">
+        <f>COUNTIF($A$2:A28,A22)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:3" ht="18.75">
-      <c r="A23" s="1"/>
-      <c r="C23" s="3"/>
+      <c r="A23" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C23" s="3">
+        <f>COUNTIF($A$2:A29,A23)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:3" ht="18.75">
-      <c r="A24" s="3"/>
-      <c r="C24" s="3"/>
+      <c r="A24" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C24" s="3">
+        <f>COUNTIF($A$2:A30,A24)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:3" ht="18.75">
-      <c r="A25" s="1"/>
-      <c r="C25" s="3"/>
+      <c r="A25" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C25" s="3">
+        <f>COUNTIF($A$2:A31,A25)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="18.75">
+      <c r="A26" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C26" s="3">
+        <f>COUNTIF($A$2:A32,A26)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:3" ht="18.75">
-      <c r="A27" s="3"/>
-      <c r="C27" s="3"/>
+      <c r="A27" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C27" s="3">
+        <f>COUNTIF($A$2:A33,A27)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:3" ht="18.75">
-      <c r="A28" s="1"/>
-      <c r="C28" s="3"/>
+      <c r="A28" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C28" s="3">
+        <f>COUNTIF($A$2:A34,A28)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:3" ht="18.75">
-      <c r="A29" s="3"/>
-      <c r="C29" s="3"/>
+      <c r="A29" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C29" s="3">
+        <f>COUNTIF($A$2:A35,A29)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:3" ht="18.75">
-      <c r="A30" s="1"/>
-      <c r="C30" s="3"/>
+      <c r="A30" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C30" s="3">
+        <f>COUNTIF($A$2:A36,A30)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:3" ht="18.75">
-      <c r="A31" s="3"/>
-      <c r="C31" s="3"/>
+      <c r="A31" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C31" s="3">
+        <f>COUNTIF($A$2:A37,A31)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:3" ht="18.75">
-      <c r="A32" s="3"/>
-      <c r="C32" s="3"/>
+      <c r="A32" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C32" s="3">
+        <f>COUNTIF($A$2:A38,A32)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:3" ht="18.75">
-      <c r="A33" s="1"/>
-      <c r="C33" s="3"/>
+      <c r="A33" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C33" s="3">
+        <f>COUNTIF($A$2:A39,A33)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:3" ht="18.75">
-      <c r="A34" s="3"/>
-      <c r="C34" s="3"/>
+      <c r="A34" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C34" s="3">
+        <f>COUNTIF($A$2:A40,A34)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:3" ht="18.75">
-      <c r="A35" s="1"/>
-      <c r="C35" s="3"/>
+      <c r="A35" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C35" s="3">
+        <f>COUNTIF($A$2:A41,A35)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="1:3" ht="18.75">
-      <c r="A36" s="3"/>
-      <c r="C36" s="3"/>
+      <c r="A36" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C36" s="3">
+        <f>COUNTIF($A$2:A42,A36)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:3" ht="18.75">
       <c r="A37" s="3"/>
